--- a/测试表0504.xlsx
+++ b/测试表0504.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">前台!$C$1:$C$114</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="299">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1204,6 +1204,26 @@
   </si>
   <si>
     <t>胡英、田雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信息-基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地区无需四级链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表及详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线支付按钮无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2066,13 +2086,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D82" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5045,6 +5065,48 @@
         <v>290</v>
       </c>
       <c r="I118" s="53"/>
+    </row>
+    <row r="119" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="B119" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C119" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="D119" s="50">
+        <v>1</v>
+      </c>
+      <c r="E119" s="50">
+        <v>5.7</v>
+      </c>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="53"/>
+    </row>
+    <row r="120" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="D120" s="50">
+        <v>1</v>
+      </c>
+      <c r="E120" s="50">
+        <v>5.7</v>
+      </c>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C114">
